--- a/nifi/application/config/xlsx_config/VO_ZA_CONFIG.xlsx
+++ b/nifi/application/config/xlsx_config/VO_ZA_CONFIG.xlsx
@@ -12,6 +12,7 @@
     <sheet name="AUTOTRADER" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="CARS" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="GUMTREE" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="YURY.AUTOTRADER" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="78">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -216,7 +217,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">{'value_set' : ['pro','private','dealer',</t>
+      <t xml:space="preserve">{'value_set' : ['pro','private','dealer','owner','professional',</t>
     </r>
     <r>
       <rPr>
@@ -225,7 +226,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">'owner',</t>
+      <t xml:space="preserve">'</t>
     </r>
     <r>
       <rPr>
@@ -235,7 +236,26 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">'professional',’particuliers’], 'mostly' : 0.95}</t>
+      <t xml:space="preserve">particuliers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">], 'mostly' : 0.95}</t>
     </r>
   </si>
   <si>
@@ -469,15 +489,15 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
   </cols>
   <sheetData>
@@ -1432,7 +1452,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1752,4 +1772,51 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/nifi/application/config/xlsx_config/VO_ZA_CONFIG.xlsx
+++ b/nifi/application/config/xlsx_config/VO_ZA_CONFIG.xlsx
@@ -209,54 +209,7 @@
     <t xml:space="preserve">expect_column_values_to_be_in_set_2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{'value_set' : ['pro','private','dealer','owner','professional',</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">particuliers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">], 'mostly' : 0.95}</t>
-    </r>
+    <t xml:space="preserve">{'value_set' : ['pro','private','dealer','owner','professional','particuliers'], 'mostly' : 0.95}</t>
   </si>
   <si>
     <t xml:space="preserve">VILLE</t>
@@ -314,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -357,12 +310,6 @@
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -489,8 +436,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
